--- a/BugReports.xlsx
+++ b/BugReports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotov\Desktop\diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40441E6E-3B03-4B0A-9A2D-A3AC9159EA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E445A3-5A14-4AE4-81C5-9BD927838B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Номер дефекта</t>
   </si>
@@ -175,6 +175,33 @@
     <t>Android Studio Iguana,  Android Studio Google Pixel 2, API 29, Ноутбук Процессор: AMD Ryzen 7 4700U with Radeon Graphics 2.00 GHz
 Оперативная память: 16.0 ГБ (доступно: 15.4 ГБ)
 Тип системы: Windows 10 Домашняя, 64-разрядная операционная система, процессор x64</t>
+  </si>
+  <si>
+    <t>Не переходит на страницу "О нас" со страницы новости через меню</t>
+  </si>
+  <si>
+    <t>При переходе по разделам меню раздел "About" недоступен со страницы News</t>
+  </si>
+  <si>
+    <t>1. Зайти в приложение</t>
+  </si>
+  <si>
+    <t>2. Авторизоваться</t>
+  </si>
+  <si>
+    <t>3. Нажать Action menu</t>
+  </si>
+  <si>
+    <t>4. Нажать на раздел "Новости"</t>
+  </si>
+  <si>
+    <t>6. Нажать кнопку "About"</t>
+  </si>
+  <si>
+    <t>Осуществляется переход на страницу "О нас"</t>
+  </si>
+  <si>
+    <t>Кнопка "About" неактивная, пользователь остается на страницу новостей</t>
   </si>
 </sst>
 </file>
@@ -292,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -372,11 +399,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -409,31 +451,13 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +472,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -456,14 +482,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,10 +740,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H965"/>
+  <dimension ref="A1:H961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -711,591 +768,613 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="18" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="15">
         <v>5</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="12" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>6</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>1</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>1</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
@@ -4042,34 +4121,27 @@
     <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C961" s="5"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C962" s="5"/>
-    </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C963" s="5"/>
-    </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C964" s="5"/>
-    </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C965" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="C18:C26"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="E18:E26"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G27:G36"/>
-    <mergeCell ref="H27:H36"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="E27:E36"/>
-    <mergeCell ref="H18:H26"/>
-    <mergeCell ref="G18:G26"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="D33:D42"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
@@ -4084,33 +4156,28 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="H18:H26"/>
+    <mergeCell ref="G18:G26"/>
     <mergeCell ref="H12:H17"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H37:H46"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="C37:C46"/>
-    <mergeCell ref="D37:D46"/>
-    <mergeCell ref="E37:E46"/>
-    <mergeCell ref="G37:G46"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="E18:E26"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C47:C965" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C43:C961" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Блокирующая (Blocker),Критическая (Critical),Средняя (Medium),Низкая (Low)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2 C4 C6 C12 C18 C27 C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2 C4 C6 C12 C18 C27 C33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Блокирующая (Blocker),Критическая (Critical),Значительная (Major),Незначительная (Minor),Тривиальная (Trivial)"</formula1>
     </dataValidation>
   </dataValidations>
